--- a/data/trans_dic/P16A15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Edad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1762,7 +1762,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.00407282762412105</v>
+        <v>0.004072827624121049</v>
       </c>
     </row>
     <row r="5">
@@ -739,13 +739,13 @@
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.03684789743221557</v>
+        <v>0.03847420915741947</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.0158338940213855</v>
+        <v>0.01513299117808579</v>
       </c>
     </row>
     <row r="7">
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006766635651202983</v>
+        <v>0.008027442923621755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001521157544184565</v>
+        <v>0.0015225274319843</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003248671474356429</v>
+        <v>0.003400918274142331</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00202385076192621</v>
+        <v>0.002356736555427383</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0007591279761270047</v>
+        <v>0.0007183193741198091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007263049111575081</v>
+        <v>0.006864574429447552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.000887011665617239</v>
+        <v>0.0008820467872134429</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002082454172549454</v>
+        <v>0.002137669397521622</v>
       </c>
     </row>
     <row r="9">
@@ -848,40 +848,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009517934856315373</v>
+        <v>0.01121678308111022</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03238425012372957</v>
+        <v>0.0327327697343473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01499076369248407</v>
+        <v>0.01349308971844558</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01075204982601943</v>
+        <v>0.009338484343868742</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02444957893355565</v>
+        <v>0.02237995724437913</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.009068346153403458</v>
+        <v>0.008983439657819073</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02031189100228259</v>
+        <v>0.02090413094204545</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007131026771890442</v>
+        <v>0.007104432635400697</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02220297661854315</v>
+        <v>0.021852175712706</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008436445169242468</v>
+        <v>0.008415042199073307</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01306644280680319</v>
+        <v>0.01295969152559816</v>
       </c>
     </row>
     <row r="10">
@@ -905,7 +905,7 @@
         <v>0.02950008086168557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03263894753254256</v>
+        <v>0.03263894753254257</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01962146032083219</v>
@@ -929,7 +929,7 @@
         <v>0.01901060841355857</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02280924329078166</v>
+        <v>0.02280924329078165</v>
       </c>
     </row>
     <row r="11">
@@ -940,40 +940,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.013392693999022</v>
+        <v>0.01429501660337725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02184863237528431</v>
+        <v>0.02318833117837922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01803506671910871</v>
+        <v>0.01832923288983385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02077750906806832</v>
+        <v>0.020147129593123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0107062303831589</v>
+        <v>0.01019969634034116</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01688817499610494</v>
+        <v>0.01599574956404437</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002995501645690106</v>
+        <v>0.003589499496676302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006489431988630672</v>
+        <v>0.00705414518993239</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01481580285754861</v>
+        <v>0.01410030406810295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02296781886792425</v>
+        <v>0.0225133608914784</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0125667044877957</v>
+        <v>0.01226992336654595</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0156321222848092</v>
+        <v>0.0155541069303412</v>
       </c>
     </row>
     <row r="12">
@@ -984,40 +984,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03852781439573247</v>
+        <v>0.04085843521495616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05097734161298167</v>
+        <v>0.05261238642548765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04505540496263169</v>
+        <v>0.04578454863968365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05054521854873375</v>
+        <v>0.05102247067726106</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03221837468324731</v>
+        <v>0.03294282823192962</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04066967348839048</v>
+        <v>0.04081550277632068</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01920577147560523</v>
+        <v>0.0179631714226307</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02148808619212911</v>
+        <v>0.02212652106056592</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03077005539480144</v>
+        <v>0.03044649880203024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04216688433635408</v>
+        <v>0.04178910799770125</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02836329577037536</v>
+        <v>0.0273303536085883</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03224877840934661</v>
+        <v>0.03263551947844678</v>
       </c>
     </row>
     <row r="13">
@@ -1041,7 +1041,7 @@
         <v>0.07519305402833822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0909002080525094</v>
+        <v>0.09090020805250938</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04815840502669548</v>
@@ -1065,7 +1065,7 @@
         <v>0.07702478112827782</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07446872463151219</v>
+        <v>0.0744687246315122</v>
       </c>
     </row>
     <row r="14">
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03899790527903841</v>
+        <v>0.03639440448118311</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05948382873969648</v>
+        <v>0.05917186203570214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0543235133882099</v>
+        <v>0.05628232617352696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0715886366574478</v>
+        <v>0.07179176589807912</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03171707366321546</v>
+        <v>0.03178107276544494</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06799546661334539</v>
+        <v>0.06961378017639142</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06003395568795685</v>
+        <v>0.05804194688076824</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04625696663922159</v>
+        <v>0.04677433190351717</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03953594828742538</v>
+        <v>0.04017912657714226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06865579951557421</v>
+        <v>0.07063182638963492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06151458065586284</v>
+        <v>0.06331656295657322</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06284932781745343</v>
+        <v>0.06286870246995295</v>
       </c>
     </row>
     <row r="15">
@@ -1120,40 +1120,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08073956577366337</v>
+        <v>0.07572127896241199</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1045502897425309</v>
+        <v>0.1061466189990696</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09922188609636313</v>
+        <v>0.09941298378945013</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.115646348074421</v>
+        <v>0.1144042040235187</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06956608532315917</v>
+        <v>0.06633210253777214</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1191375959799798</v>
+        <v>0.1187403255259881</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1061439177033893</v>
+        <v>0.1014262335401804</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07367250518447906</v>
+        <v>0.07319054258804766</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06656689511929631</v>
+        <v>0.0658427905365582</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1043964955537761</v>
+        <v>0.1030731997279167</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0922068231824958</v>
+        <v>0.09236850683130633</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08934514086164584</v>
+        <v>0.08869966298724244</v>
       </c>
     </row>
     <row r="16">
@@ -1212,40 +1212,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1066196872286446</v>
+        <v>0.1082347128063678</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1533472036692375</v>
+        <v>0.154519426420155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1217755180284705</v>
+        <v>0.1268742017282881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1635725363179043</v>
+        <v>0.1660431652199582</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1169449798419937</v>
+        <v>0.1169342565793104</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.190369577378609</v>
+        <v>0.1917100201616798</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1691145251608425</v>
+        <v>0.1672503554636861</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1813559909832882</v>
+        <v>0.1802475903044091</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1210394259660689</v>
+        <v>0.1193976157909038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1853023799456703</v>
+        <v>0.1843312569420228</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1534328658328391</v>
+        <v>0.1554071709223283</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1785603474744824</v>
+        <v>0.180934419127945</v>
       </c>
     </row>
     <row r="18">
@@ -1256,40 +1256,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1772592211886854</v>
+        <v>0.1749398125392021</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2385140993042224</v>
+        <v>0.2385053596778722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1930543976792866</v>
+        <v>0.1920906581501017</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2215943234683734</v>
+        <v>0.2238157473203692</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1902898346564217</v>
+        <v>0.1910807547454361</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2726517706511061</v>
+        <v>0.2719620896875461</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.244567586740643</v>
+        <v>0.2427568081326228</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2312172811519131</v>
+        <v>0.2291826318799855</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1690378702654341</v>
+        <v>0.1690314623204312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2426392092237089</v>
+        <v>0.243830263267435</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2056200856233403</v>
+        <v>0.2076777297530368</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2188366603333761</v>
+        <v>0.219304269087964</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>0.2954180141551651</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2737886869326077</v>
+        <v>0.2737886869326076</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2477605487613444</v>
@@ -1337,7 +1337,7 @@
         <v>0.2884885048125163</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3009048511994261</v>
+        <v>0.3009048511994262</v>
       </c>
     </row>
     <row r="20">
@@ -1348,40 +1348,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1352707384583705</v>
+        <v>0.1363151790379129</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2918396990855146</v>
+        <v>0.2918066711389742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2469208378461656</v>
+        <v>0.2460788765748655</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2374669423561452</v>
+        <v>0.2382875226415781</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2063257097341184</v>
+        <v>0.2073246259042717</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2761167633428954</v>
+        <v>0.2756792867470246</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.236857470927457</v>
+        <v>0.2341479882500752</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2910943483444003</v>
+        <v>0.2936873049215289</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.181239988465428</v>
+        <v>0.1848962162151089</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2958420094112246</v>
+        <v>0.2963011367835159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2582498378767161</v>
+        <v>0.2566128305398254</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2776278361025214</v>
+        <v>0.2791985998861095</v>
       </c>
     </row>
     <row r="21">
@@ -1392,40 +1392,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2205017326809339</v>
+        <v>0.2226659041288555</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4080158612227356</v>
+        <v>0.4050262716222555</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3477916089235167</v>
+        <v>0.3446948308302996</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3131441456611257</v>
+        <v>0.3123127818836686</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2963105414127971</v>
+        <v>0.2954228758411361</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3779566529137785</v>
+        <v>0.3773295907897371</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3296680535236194</v>
+        <v>0.3318334653401879</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3588166048696755</v>
+        <v>0.3582352902639014</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2453374135862153</v>
+        <v>0.2446783855617709</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3744482115728745</v>
+        <v>0.3733423481133739</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3237940009879346</v>
+        <v>0.3225889718849807</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.327498024463433</v>
+        <v>0.3251913304045596</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1473,7 @@
         <v>0.302938321505382</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3897416960657321</v>
+        <v>0.3897416960657322</v>
       </c>
     </row>
     <row r="23">
@@ -1484,40 +1484,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1431705990149206</v>
+        <v>0.1415019797160981</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2569357861154187</v>
+        <v>0.255118560096883</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2414455735658737</v>
+        <v>0.242859560187723</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3092260576184062</v>
+        <v>0.3095026819273854</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1933782843127554</v>
+        <v>0.196932732748662</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.303414451285498</v>
+        <v>0.3037417596243807</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2635141675842617</v>
+        <v>0.2599197501322109</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3780546385455997</v>
+        <v>0.3826001601970225</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1871839013500364</v>
+        <v>0.1901482360876147</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3029855390386252</v>
+        <v>0.3029071933758941</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2640410102254844</v>
+        <v>0.2690671378076268</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3632189610758248</v>
+        <v>0.3623872898961729</v>
       </c>
     </row>
     <row r="24">
@@ -1528,40 +1528,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2508243833512172</v>
+        <v>0.247502322770331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3844416259103909</v>
+        <v>0.3771072214684446</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3426003873403508</v>
+        <v>0.3417323817847335</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4024081637479645</v>
+        <v>0.3986025668028654</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2934565059185229</v>
+        <v>0.2942626649984673</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4057195371685963</v>
+        <v>0.4052095785849172</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3687989434683022</v>
+        <v>0.3631984255299936</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4471899626637736</v>
+        <v>0.4469365545264016</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2657974764280953</v>
+        <v>0.2610429323545028</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3825053636456385</v>
+        <v>0.3785358712541215</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3400203032901564</v>
+        <v>0.3387332054106112</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4166955510401056</v>
+        <v>0.414928334438775</v>
       </c>
     </row>
     <row r="25">
@@ -1620,40 +1620,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09279444438169521</v>
+        <v>0.09250060057258822</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08415955811630285</v>
+        <v>0.0843449968116326</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1102144921849681</v>
+        <v>0.1096740802742392</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1119952580726624</v>
+        <v>0.1111766981195295</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09880474789283292</v>
+        <v>0.09983557221183989</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1303419372563774</v>
+        <v>0.1309294497317474</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.105247849121919</v>
+        <v>0.1052829263503196</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.09500765199792503</v>
+        <v>0.09515225705018535</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1226666724310728</v>
+        <v>0.1229501971917022</v>
       </c>
     </row>
     <row r="27">
@@ -1664,40 +1664,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1140851299277312</v>
+        <v>0.1144735460232436</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1041296435324329</v>
+        <v>0.1047290231253397</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1299504596032464</v>
+        <v>0.1302675119909749</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1355567187974031</v>
+        <v>0.1339714806560046</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1216046031479011</v>
+        <v>0.1220763438412802</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1477387047118719</v>
+        <v>0.1483317118681589</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1210832459892789</v>
+        <v>0.1216662826989511</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.109623882212</v>
+        <v>0.1088872556888368</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1361884414991504</v>
+        <v>0.136862421940205</v>
       </c>
     </row>
     <row r="28">
@@ -2002,13 +2002,13 @@
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>13358</v>
+        <v>13947</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>12197</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="8">
@@ -2114,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4644</v>
+        <v>5509</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1979</v>
+        <v>2072</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1014</v>
+        <v>1181</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1033</v>
+        <v>978</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9409</v>
+        <v>8893</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2037</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="11">
@@ -2155,40 +2155,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22223</v>
+        <v>22462</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8852</v>
+        <v>7968</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6725</v>
+        <v>5841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14895</v>
+        <v>13634</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5110</v>
+        <v>5063</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10178</v>
+        <v>10475</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9705</v>
+        <v>9669</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28763</v>
+        <v>28308</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>9736</v>
+        <v>9711</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12779</v>
+        <v>12674</v>
       </c>
     </row>
     <row r="12">
@@ -2291,40 +2291,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8540</v>
+        <v>9115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14858</v>
+        <v>15769</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12067</v>
+        <v>12264</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12899</v>
+        <v>12508</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7385</v>
+        <v>7035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11922</v>
+        <v>11292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1981</v>
+        <v>2374</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4037</v>
+        <v>4389</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19666</v>
+        <v>18717</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31833</v>
+        <v>31203</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16720</v>
+        <v>16325</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19430</v>
+        <v>19333</v>
       </c>
     </row>
     <row r="15">
@@ -2335,40 +2335,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24567</v>
+        <v>26053</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34667</v>
+        <v>35779</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30146</v>
+        <v>30634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31380</v>
+        <v>31677</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22222</v>
+        <v>22722</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28710</v>
+        <v>28813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12702</v>
+        <v>11881</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13369</v>
+        <v>13766</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40844</v>
+        <v>40414</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>58443</v>
+        <v>57919</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37737</v>
+        <v>36363</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>40084</v>
+        <v>40565</v>
       </c>
     </row>
     <row r="16">
@@ -2471,40 +2471,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20246</v>
+        <v>18894</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36560</v>
+        <v>36368</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>35096</v>
+        <v>36361</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>50156</v>
+        <v>50299</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>16355</v>
+        <v>16388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41754</v>
+        <v>42748</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38967</v>
+        <v>37674</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34086</v>
+        <v>34467</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>40911</v>
+        <v>41577</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>84357</v>
+        <v>86785</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79669</v>
+        <v>82003</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>90346</v>
+        <v>90374</v>
       </c>
     </row>
     <row r="19">
@@ -2515,40 +2515,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41916</v>
+        <v>39310</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64258</v>
+        <v>65240</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64102</v>
+        <v>64226</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>81024</v>
+        <v>80154</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>35871</v>
+        <v>34204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>73159</v>
+        <v>72915</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68896</v>
+        <v>65833</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54288</v>
+        <v>53933</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>68883</v>
+        <v>68133</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>128271</v>
+        <v>126645</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>119419</v>
+        <v>119629</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>128434</v>
+        <v>127506</v>
       </c>
     </row>
     <row r="20">
@@ -2651,40 +2651,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>41231</v>
+        <v>41855</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65561</v>
+        <v>66062</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58199</v>
+        <v>60635</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>99511</v>
+        <v>101014</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>47244</v>
+        <v>47240</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>85058</v>
+        <v>85657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>84024</v>
+        <v>83098</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>110164</v>
+        <v>109491</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>95705</v>
+        <v>94407</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>162017</v>
+        <v>161168</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>149561</v>
+        <v>151486</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>217095</v>
+        <v>219981</v>
       </c>
     </row>
     <row r="23">
@@ -2695,40 +2695,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>68548</v>
+        <v>67651</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>101972</v>
+        <v>101968</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92264</v>
+        <v>91804</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>134809</v>
+        <v>136160</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>76874</v>
+        <v>77194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>121823</v>
+        <v>121515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>121513</v>
+        <v>120613</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>140452</v>
+        <v>139217</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>133658</v>
+        <v>133653</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>212149</v>
+        <v>213190</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>200432</v>
+        <v>202437</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>266063</v>
+        <v>266632</v>
       </c>
     </row>
     <row r="24">
@@ -2831,40 +2831,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39578</v>
+        <v>39884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>90408</v>
+        <v>90398</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>82553</v>
+        <v>82272</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>96668</v>
+        <v>97002</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>70756</v>
+        <v>71099</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>97744</v>
+        <v>97589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>89476</v>
+        <v>88452</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>127839</v>
+        <v>128977</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>115181</v>
+        <v>117505</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>196375</v>
+        <v>196679</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>183898</v>
+        <v>182732</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>234941</v>
+        <v>236271</v>
       </c>
     </row>
     <row r="27">
@@ -2875,40 +2875,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>64515</v>
+        <v>65148</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>126398</v>
+        <v>125471</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>116277</v>
+        <v>115242</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>127475</v>
+        <v>127136</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>101615</v>
+        <v>101311</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>133795</v>
+        <v>133573</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>124536</v>
+        <v>125354</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>157580</v>
+        <v>157325</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>155916</v>
+        <v>155497</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>248552</v>
+        <v>247818</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>230571</v>
+        <v>229713</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>277144</v>
+        <v>275192</v>
       </c>
     </row>
     <row r="28">
@@ -3011,40 +3011,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>30049</v>
+        <v>29699</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>64196</v>
+        <v>63742</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>62051</v>
+        <v>62414</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>95921</v>
+        <v>96007</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>64571</v>
+        <v>65757</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>117335</v>
+        <v>117462</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>105450</v>
+        <v>104012</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>175194</v>
+        <v>177301</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>101789</v>
+        <v>103401</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>192871</v>
+        <v>192821</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>173519</v>
+        <v>176822</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>280989</v>
+        <v>280346</v>
       </c>
     </row>
     <row r="31">
@@ -3055,40 +3055,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>52644</v>
+        <v>51947</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>96053</v>
+        <v>94221</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88048</v>
+        <v>87825</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>124826</v>
+        <v>123646</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>97987</v>
+        <v>98257</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>156898</v>
+        <v>156701</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>147582</v>
+        <v>145341</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>207232</v>
+        <v>207115</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>144538</v>
+        <v>141953</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>243490</v>
+        <v>240963</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>223450</v>
+        <v>222604</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>322359</v>
+        <v>320992</v>
       </c>
     </row>
     <row r="32">
@@ -3191,40 +3191,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>317467</v>
+        <v>316461</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>285667</v>
+        <v>286296</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>389253</v>
+        <v>387344</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>397144</v>
+        <v>394241</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>350218</v>
+        <v>353871</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>486520</v>
+        <v>488713</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>733289</v>
+        <v>733534</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>659248</v>
+        <v>660251</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>891102</v>
+        <v>893162</v>
       </c>
     </row>
     <row r="35">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>390306</v>
+        <v>391635</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>353452</v>
+        <v>355487</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>458956</v>
+        <v>460076</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>480695</v>
+        <v>475074</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>431033</v>
+        <v>432705</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>551456</v>
+        <v>553670</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>843619</v>
+        <v>847681</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>760668</v>
+        <v>755557</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>989330</v>
+        <v>994226</v>
       </c>
     </row>
     <row r="36">
